--- a/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 0,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 0,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 0,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,19</t>
+          <t>0,24; 0,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 0,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 0,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 0,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,19</t>
+          <t>0,31; 0,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 0,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 0,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 0,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,16</t>
+          <t>0,31; 0,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 0,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 0,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 0,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,26</t>
+          <t>0,37; 0,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 0,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 1,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 0,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,15</t>
+          <t>0,36; 0,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 0,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 1,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 0,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,19</t>
+          <t>0,4; 0,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,02</t>
+          <t>0,26; 0,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 0,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,21</t>
+          <t>0,44; 0,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,49</t>
+          <t>0,21; 0,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,73</t>
+          <t>0,31; 0,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 0,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,17</t>
+          <t>0,51; 0,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,32</t>
+          <t>0,21; 0,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,82</t>
+          <t>0,3; 0,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 0,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,17</t>
+          <t>0,5; 0,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,18</t>
+          <t>0,4; 0,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,49</t>
+          <t>0,14; 0,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,39</t>
+          <t>0,31; 0,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,19</t>
+          <t>0,87; 1,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,23</t>
+          <t>0,3; 0,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,58</t>
+          <t>0,63; 0,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,36</t>
+          <t>0,33; 0,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,14</t>
+          <t>0,76; 1,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,19</t>
+          <t>0,38; 0,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,49</t>
+          <t>0,28; 0,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,32</t>
+          <t>0,34; 0,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,15</t>
+          <t>0,87; 1,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,23</t>
+          <t>0,88; 1,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,61</t>
+          <t>1,13; 1,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,4</t>
+          <t>0,87; 1,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,23</t>
+          <t>1,16; 1,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,25</t>
+          <t>0,57; 0,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,59</t>
+          <t>1,1; 1,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,49</t>
+          <t>0,88; 1,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,25</t>
+          <t>1,28; 1,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,22</t>
+          <t>0,74; 0,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,56</t>
+          <t>1,15; 1,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,41</t>
+          <t>0,91; 1,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,22</t>
+          <t>1,29; 1,57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,2</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,28</t>
+          <t>1,29; 1,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,66</t>
+          <t>1,49; 1,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,41</t>
+          <t>1,55; 1,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,33</t>
+          <t>1,84; 2,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,3</t>
+          <t>1,05; 1,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,76</t>
+          <t>1,76; 2,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,36</t>
+          <t>1,31; 1,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,33</t>
+          <t>1,99; 2,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,27</t>
+          <t>1,2; 1,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,67</t>
+          <t>1,7; 2,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,36</t>
+          <t>1,47; 1,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,3</t>
+          <t>1,98; 2,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1564,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,49</t>
+          <t>1,87; 2,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,26</t>
+          <t>2,16; 2,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,8</t>
+          <t>1,93; 2,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,53</t>
+          <t>2,35; 2,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,46</t>
+          <t>1,67; 1,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,09</t>
+          <t>2,29; 2,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,8</t>
+          <t>2,19; 2,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,41</t>
+          <t>2,6; 3,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,46</t>
+          <t>1,8; 2,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,11</t>
+          <t>2,3; 2,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,77</t>
+          <t>2,13; 2,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,45</t>
+          <t>2,6; 2,99</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>1,19</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -1704,507 +1704,84 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,21</t>
+          <t>0,8; 0,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,61</t>
+          <t>0,5; 0,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,4</t>
+          <t>0,69; 0,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,1</t>
+          <t>1,01; 1,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,15</t>
+          <t>0,7; 0,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,62</t>
+          <t>0,98; 1,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,3</t>
+          <t>0,76; 0,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,7</t>
+          <t>1,2; 1,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,14</t>
+          <t>0,76; 0,83</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,57</t>
+          <t>0,84; 1,28</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,31</t>
+          <t>0,74; 0,81</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,86</t>
+          <t>1,13; 1,26</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 1,86</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 2,42</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 1,92</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 1,52</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 1,63</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 2,69</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,59</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,21</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 1,71</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 2,43</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 2,32</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 1,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 2,33</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 2,96</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 2,64</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,15</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 2,59</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 3,17</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 2,89</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 1,9</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 2,43</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 3,0</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 2,74</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 1,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 1,01</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,17</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 0,97</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 0,78</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 1,02</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 1,38</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,27</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 0,68</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 1,0</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 1,25</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 1,14</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 0,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indice de cronicidad total 1-10</t>
+          <t>Indice de cronicidad total 0-9</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indice de cronicidad total 0-9</t>
+          <t>Indice de cronicidad total 0-9 (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,21</t>
+          <t>0,07; 0,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,5</t>
+          <t>0,14; 0,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,48</t>
+          <t>0,24; 0,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,15</t>
+          <t>0,07; 0,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,39</t>
+          <t>0,11; 0,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,59</t>
+          <t>0,3; 0,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,16</t>
+          <t>0,08; 0,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,4</t>
+          <t>0,14; 0,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,49</t>
+          <t>0,3; 0,48</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,23</t>
+          <t>0,12; 0,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,43</t>
+          <t>0,21; 0,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,61</t>
+          <t>0,38; 0,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,25</t>
+          <t>0,13; 0,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,29</t>
+          <t>0,21; 1,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,23</t>
+          <t>0,13; 0,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,03</t>
+          <t>0,25; 0,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,31</t>
+          <t>0,18; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,43</t>
+          <t>0,26; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,66</t>
+          <t>0,45; 0,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,76</t>
+          <t>0,5; 0,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,3</t>
+          <t>0,21; 0,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,67</t>
+          <t>0,51; 0,68</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,55</t>
+          <t>0,39; 0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,73</t>
+          <t>0,16; 0,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,25</t>
+          <t>0,89; 1,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,43</t>
+          <t>0,3; 0,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,1</t>
+          <t>0,76; 1,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,47</t>
+          <t>0,35; 0,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,73</t>
+          <t>0,27; 0,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1216,39 +1216,39 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>1,01</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
           <t>1,45</t>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,13</t>
+          <t>0,81; 1,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,61</t>
+          <t>1,17; 1,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,73</t>
+          <t>0,56; 0,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,34</t>
+          <t>1,08; 1,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,63</t>
+          <t>1,28; 1,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,89</t>
+          <t>0,69; 0,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,57</t>
+          <t>1,28; 1,57</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,58</t>
+          <t>1,26; 1,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,88</t>
+          <t>1,48; 1,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,39</t>
+          <t>1,83; 2,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,28</t>
+          <t>1,04; 1,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,76</t>
+          <t>1,75; 2,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,72</t>
+          <t>2,01; 2,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,39</t>
+          <t>1,17; 1,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,6</t>
+          <t>1,69; 2,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,47</t>
+          <t>1,99; 2,45</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,27</t>
+          <t>1,92; 2,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 2,68</t>
+          <t>2,18; 2,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,97</t>
+          <t>2,35; 3,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 1,95</t>
+          <t>1,65; 1,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,67</t>
+          <t>2,29; 2,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 3,16</t>
+          <t>2,6; 3,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,02</t>
+          <t>1,81; 2,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,3; 2,61</t>
+          <t>2,29; 2,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 2,99</t>
+          <t>2,59; 2,99</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,27 +1656,27 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>0,74</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 0,9</t>
+          <t>0,73; 0,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,91</t>
+          <t>0,52; 0,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,79</t>
+          <t>0,67; 0,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,37</t>
+          <t>1,19; 1,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 0,83</t>
+          <t>0,71; 0,77</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,28</t>
+          <t>0,84; 1,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">

--- a/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CRON_INDEX-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,11</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>0,11</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,13; 0,45</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 0,49</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,19</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,07; 0,16</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 0,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 0,49</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>0,12; 0,37</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 0,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 0,25</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0,07; 0,15</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,38</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 0,25</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 0,56</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>0,14; 0,34</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 0,48</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,14</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 0,37</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,2</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 0,48</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,16</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,21; 0,42</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 0,62</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 0,26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,12; 0,22</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 0,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 0,26</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 0,62</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,16; 0,31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 0,58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 0,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0,13; 0,24</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 1,31</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 0,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 0,58</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>0,21; 0,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 0,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 0,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>0,13; 0,21</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 0,98</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 0,22</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 0,56</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>0,25</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,28; 0,45</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 0,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 0,27</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,18; 0,28</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 0,27</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 0,66</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>0,32; 0,47</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 0,76</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0,21; 0,34</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 0,46</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 0,32</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 0,76</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>0,32; 0,43</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 0,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,27</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>0,21; 0,29</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 0,42</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,27</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 0,68</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,45</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,4</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,58; 0,81</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 1,24</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 0,48</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,39; 0,53</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 0,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 0,48</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 1,24</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>0,62; 0,78</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 1,08</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 0,49</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0,3; 0,4</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 0,84</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 0,49</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 1,08</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>0,62; 0,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 1,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 0,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>0,35; 0,44</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 0,73</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 0,46</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 1,11</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,63</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>0,76</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,11; 1,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 1,6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 1,2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>0,81; 1,05</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 1,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 1,2</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 1,6</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>1,08; 1,33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 1,64</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 1,16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>0,56; 0,72</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 1,33</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 1,16</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 1,64</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>1,14; 1,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 1,57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 1,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>0,69; 0,82</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 1,35</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 1,13</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 1,57</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>1,4</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>1,15</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>1,27</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,45; 1,82</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 2,41</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 1,87</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>1,26; 1,55</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 1,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 1,87</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,41</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>1,69; 1,99</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 2,7</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 1,62</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>1,04; 1,26</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 2,82</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 1,62</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 2,7</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>1,63; 1,88</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 2,45</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 1,69</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>1,17; 1,36</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 2,65</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 1,69</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 2,45</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>2,09</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>1,78</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>1,9</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,2; 2,71</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 3,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 2,27</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>1,92; 2,26</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 2,69</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 2,27</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 3,0</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>2,3; 2,68</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 3,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 2,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>1,65; 1,92</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 2,68</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 2,57</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 3,14</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>2,3; 2,63</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 2,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 2,39</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>1,81; 2,02</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 2,62</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 2,39</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 2,99</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>0,77</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>0,74</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,81; 0,93</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 1,18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 0,79</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>0,73; 0,82</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 0,91</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 0,79</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,18</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>0,91; 1,02</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 1,38</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 0,86</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0,67; 0,75</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 1,69</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 0,86</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 1,38</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>0,88; 0,96</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 1,26</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 0,81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>0,71; 0,77</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 1,27</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 0,81</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 1,26</t>
         </is>
       </c>
     </row>
